--- a/Document/SurveyReport.xlsx
+++ b/Document/SurveyReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Puttipong New\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Puttipong New\Documents\Senior_PG\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>Public</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>Satisfaction of school bus system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System overall satisfaction </t>
   </si>
 </sst>
 </file>
@@ -254,7 +257,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -264,6 +267,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -555,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="Q55" sqref="Q55"/>
+    <sheetView tabSelected="1" topLeftCell="F16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -676,35 +682,39 @@
       <c r="L7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="H8" s="5" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="H8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="O8" s="6" t="s">
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="O8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P8" s="6"/>
+      <c r="P8" s="7"/>
       <c r="Q8">
         <v>2</v>
+      </c>
+      <c r="S8">
+        <f>(Q8/200)*100</f>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -723,6 +733,10 @@
       <c r="E9">
         <v>8</v>
       </c>
+      <c r="F9">
+        <f>SUM(B9:E9)</f>
+        <v>60</v>
+      </c>
       <c r="H9" s="2">
         <v>5</v>
       </c>
@@ -738,12 +752,20 @@
       <c r="L9">
         <v>7</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="M9">
+        <f>SUM(I9:L9)</f>
+        <v>24</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P9" s="6"/>
+      <c r="P9" s="7"/>
       <c r="Q9">
         <v>94</v>
+      </c>
+      <c r="S9">
+        <f t="shared" ref="S9:S12" si="0">(Q9/200)*100</f>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -762,6 +784,10 @@
       <c r="E10">
         <v>26</v>
       </c>
+      <c r="F10">
+        <f t="shared" ref="F10:F22" si="1">SUM(B10:E10)</f>
+        <v>80</v>
+      </c>
       <c r="H10" s="2">
         <v>4</v>
       </c>
@@ -777,12 +803,20 @@
       <c r="L10">
         <v>6</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="M10">
+        <f t="shared" ref="M10:M42" si="2">SUM(I10:L10)</f>
+        <v>61</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="6"/>
+      <c r="P10" s="7"/>
       <c r="Q10">
         <v>82</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -801,6 +835,10 @@
       <c r="E11">
         <v>14</v>
       </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
       <c r="H11" s="2">
         <v>3</v>
       </c>
@@ -816,13 +854,21 @@
       <c r="L11">
         <v>31</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P11" s="6"/>
+      <c r="P11" s="7"/>
       <c r="Q11">
         <v>22</v>
       </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -840,6 +886,10 @@
       <c r="E12">
         <v>2</v>
       </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
       <c r="H12" s="2">
         <v>2</v>
       </c>
@@ -854,11 +904,19 @@
       </c>
       <c r="L12">
         <v>5</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="Q12">
         <f>SUM(Q8:Q11)</f>
         <v>200</v>
       </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -876,6 +934,10 @@
       <c r="E13">
         <v>0</v>
       </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="H13" s="2">
         <v>1</v>
       </c>
@@ -890,6 +952,10 @@
       </c>
       <c r="L13">
         <v>1</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -909,6 +975,10 @@
         <f>SUM(E9:E13)</f>
         <v>50</v>
       </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
       <c r="I14">
         <f>SUM(I9:I13)</f>
         <v>50</v>
@@ -925,35 +995,51 @@
         <f>SUM(L9:L13)</f>
         <v>50</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="O14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="H15" s="5" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="O15" s="6" t="s">
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P15" s="6"/>
+      <c r="P15" s="7"/>
       <c r="Q15">
         <v>37</v>
+      </c>
+      <c r="S15">
+        <f>(Q15/200)*100</f>
+        <v>18.5</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -972,6 +1058,10 @@
       <c r="E16">
         <v>15</v>
       </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
       <c r="H16" s="2">
         <v>5</v>
       </c>
@@ -987,12 +1077,20 @@
       <c r="L16">
         <v>8</v>
       </c>
-      <c r="O16" s="6" t="s">
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="P16" s="6"/>
+      <c r="P16" s="7"/>
       <c r="Q16">
         <v>71</v>
+      </c>
+      <c r="S16">
+        <f t="shared" ref="S16:S18" si="3">(Q16/200)*100</f>
+        <v>35.5</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -1011,6 +1109,10 @@
       <c r="E17">
         <v>16</v>
       </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
       <c r="H17" s="2">
         <v>4</v>
       </c>
@@ -1026,12 +1128,20 @@
       <c r="L17">
         <v>10</v>
       </c>
-      <c r="O17" s="6" t="s">
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P17" s="6"/>
+      <c r="P17" s="7"/>
       <c r="Q17">
         <v>92</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="3"/>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -1050,6 +1160,10 @@
       <c r="E18">
         <v>14</v>
       </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
       <c r="H18" s="2">
         <v>3</v>
       </c>
@@ -1064,11 +1178,19 @@
       </c>
       <c r="L18">
         <v>25</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>68</v>
       </c>
       <c r="Q18">
         <f>SUM(Q15:Q17)</f>
         <v>200</v>
       </c>
+      <c r="S18">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -1086,6 +1208,10 @@
       <c r="E19">
         <v>4</v>
       </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="H19" s="2">
         <v>2</v>
       </c>
@@ -1101,6 +1227,10 @@
       <c r="L19">
         <v>5</v>
       </c>
+      <c r="M19">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -1118,6 +1248,10 @@
       <c r="E20">
         <v>1</v>
       </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="H20" s="2">
         <v>1</v>
       </c>
@@ -1133,13 +1267,17 @@
       <c r="L20">
         <v>2</v>
       </c>
-      <c r="O20" s="5" t="s">
+      <c r="M20">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B21">
@@ -1158,6 +1296,10 @@
         <f>SUM(E16:E20)</f>
         <v>50</v>
       </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
       <c r="I21">
         <f>SUM(I16:I20)</f>
         <v>50</v>
@@ -1174,35 +1316,55 @@
         <f>SUM(L16:L20)</f>
         <v>50</v>
       </c>
-      <c r="O21" s="6" t="s">
+      <c r="M21">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="P21" s="6"/>
+      <c r="P21" s="7"/>
       <c r="Q21">
         <v>9</v>
       </c>
+      <c r="S21">
+        <f>(Q21/200)*100</f>
+        <v>4.5</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="H22" s="5" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="O22" s="6" t="s">
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="P22" s="6"/>
+      <c r="P22" s="7"/>
       <c r="Q22">
         <v>76</v>
+      </c>
+      <c r="S22">
+        <f t="shared" ref="S22:S25" si="4">(Q22/200)*100</f>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -1221,6 +1383,10 @@
       <c r="E23">
         <v>5</v>
       </c>
+      <c r="F23">
+        <f>SUM(B23:E23)</f>
+        <v>51</v>
+      </c>
       <c r="H23" s="2">
         <v>5</v>
       </c>
@@ -1236,12 +1402,20 @@
       <c r="L23">
         <v>4</v>
       </c>
-      <c r="O23" s="6" t="s">
+      <c r="M23">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="P23" s="6"/>
+      <c r="P23" s="7"/>
       <c r="Q23">
         <v>72</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="4"/>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -1260,6 +1434,10 @@
       <c r="E24">
         <v>10</v>
       </c>
+      <c r="F24">
+        <f>SUM(B24:E24)</f>
+        <v>60</v>
+      </c>
       <c r="H24" s="2">
         <v>4</v>
       </c>
@@ -1275,12 +1453,20 @@
       <c r="L24">
         <v>20</v>
       </c>
-      <c r="O24" s="6" t="s">
+      <c r="M24">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P24" s="6"/>
+      <c r="P24" s="7"/>
       <c r="Q24">
         <v>43</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="4"/>
+        <v>21.5</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -1299,6 +1485,10 @@
       <c r="E25">
         <v>28</v>
       </c>
+      <c r="F25">
+        <f t="shared" ref="F25:F27" si="5">SUM(B25:E25)</f>
+        <v>70</v>
+      </c>
       <c r="H25" s="2">
         <v>3</v>
       </c>
@@ -1313,11 +1503,19 @@
       </c>
       <c r="L25">
         <v>24</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="2"/>
+        <v>67</v>
       </c>
       <c r="Q25">
         <f>SUM(Q21:Q24)</f>
         <v>200</v>
       </c>
+      <c r="S25">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
@@ -1335,6 +1533,10 @@
       <c r="E26">
         <v>7</v>
       </c>
+      <c r="F26">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
       <c r="H26" s="2">
         <v>2</v>
       </c>
@@ -1350,6 +1552,10 @@
       <c r="L26">
         <v>2</v>
       </c>
+      <c r="M26">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1367,6 +1573,10 @@
       <c r="E27">
         <v>0</v>
       </c>
+      <c r="F27">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
       <c r="H27" s="2">
         <v>1</v>
       </c>
@@ -1382,13 +1592,17 @@
       <c r="L27">
         <v>0</v>
       </c>
-      <c r="O27" s="5" t="s">
+      <c r="M27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B28">
@@ -1407,6 +1621,10 @@
         <f>SUM(E23:E27)</f>
         <v>50</v>
       </c>
+      <c r="F28">
+        <f>SUM(B28:E28)</f>
+        <v>200</v>
+      </c>
       <c r="I28">
         <f>SUM(I23:I27)</f>
         <v>50</v>
@@ -1423,35 +1641,51 @@
         <f>SUM(L23:L27)</f>
         <v>50</v>
       </c>
-      <c r="O28" s="6" t="s">
+      <c r="M28">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P28" s="6"/>
+      <c r="P28" s="7"/>
       <c r="Q28">
         <v>109</v>
       </c>
+      <c r="S28">
+        <f>(Q28/200)*100</f>
+        <v>54.500000000000007</v>
+      </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="H29" s="5" t="s">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="H29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="O29" s="6" t="s">
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P29" s="6"/>
+      <c r="P29" s="7"/>
       <c r="Q29">
         <v>68</v>
+      </c>
+      <c r="S29">
+        <f t="shared" ref="S29:S32" si="6">(Q29/200)*100</f>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -1470,6 +1704,10 @@
       <c r="E30">
         <v>3</v>
       </c>
+      <c r="F30">
+        <f>SUM(B30:E30)</f>
+        <v>21</v>
+      </c>
       <c r="H30" s="2">
         <v>5</v>
       </c>
@@ -1485,12 +1723,20 @@
       <c r="L30">
         <v>3</v>
       </c>
-      <c r="O30" s="6" t="s">
+      <c r="M30">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="P30" s="6"/>
+      <c r="P30" s="7"/>
       <c r="Q30">
         <v>4</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -1509,6 +1755,10 @@
       <c r="E31">
         <v>15</v>
       </c>
+      <c r="F31">
+        <f t="shared" ref="F31:F35" si="7">SUM(B31:E31)</f>
+        <v>78</v>
+      </c>
       <c r="H31" s="2">
         <v>4</v>
       </c>
@@ -1524,12 +1774,20 @@
       <c r="L31">
         <v>6</v>
       </c>
-      <c r="O31" s="6" t="s">
+      <c r="M31">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P31" s="6"/>
+      <c r="P31" s="7"/>
       <c r="Q31">
         <v>19</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="6"/>
+        <v>9.5</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -1548,6 +1806,10 @@
       <c r="E32">
         <v>27</v>
       </c>
+      <c r="F32">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
       <c r="H32" s="2">
         <v>3</v>
       </c>
@@ -1562,11 +1824,19 @@
       </c>
       <c r="L32">
         <v>28</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="2"/>
+        <v>111</v>
       </c>
       <c r="Q32">
         <f>SUM(Q28:Q31)</f>
         <v>200</v>
       </c>
+      <c r="S32">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -1584,6 +1854,10 @@
       <c r="E33">
         <v>5</v>
       </c>
+      <c r="F33">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
       <c r="H33" s="2">
         <v>2</v>
       </c>
@@ -1599,6 +1873,10 @@
       <c r="L33">
         <v>13</v>
       </c>
+      <c r="M33">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
@@ -1616,6 +1894,10 @@
       <c r="E34">
         <v>0</v>
       </c>
+      <c r="F34">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
       <c r="H34" s="2">
         <v>1</v>
       </c>
@@ -1631,13 +1913,17 @@
       <c r="L34">
         <v>0</v>
       </c>
-      <c r="O34" s="5" t="s">
+      <c r="M34">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="O34" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B35">
@@ -1656,6 +1942,10 @@
         <f>SUM(E30:E34)</f>
         <v>50</v>
       </c>
+      <c r="F35">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
       <c r="I35">
         <f>SUM(I30:I34)</f>
         <v>50</v>
@@ -1672,28 +1962,51 @@
         <f>SUM(L30:L34)</f>
         <v>50</v>
       </c>
-      <c r="O35" s="6" t="s">
+      <c r="M35">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P35" s="6"/>
+      <c r="P35" s="7"/>
       <c r="Q35">
         <v>94</v>
       </c>
+      <c r="S35">
+        <f>(Q35/200)*100</f>
+        <v>47</v>
+      </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="O36" s="6" t="s">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="H36" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="P36" s="6"/>
+      <c r="P36" s="7"/>
       <c r="Q36">
         <v>84</v>
+      </c>
+      <c r="S36">
+        <f t="shared" ref="S36:S38" si="8">(Q36/200)*100</f>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -1712,12 +2025,39 @@
       <c r="E37">
         <v>16</v>
       </c>
-      <c r="O37" s="6" t="s">
+      <c r="F37">
+        <f>SUM(B37:E37)</f>
+        <v>74</v>
+      </c>
+      <c r="H37" s="5">
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <v>14</v>
+      </c>
+      <c r="J37">
+        <v>9</v>
+      </c>
+      <c r="K37">
+        <v>16</v>
+      </c>
+      <c r="L37">
+        <v>8</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P37" s="6"/>
+      <c r="P37" s="7"/>
       <c r="Q37">
         <v>87</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="8"/>
+        <v>43.5</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -1736,12 +2076,39 @@
       <c r="E38">
         <v>18</v>
       </c>
-      <c r="O38" s="6" t="s">
+      <c r="F38">
+        <f t="shared" ref="F38:F42" si="9">SUM(B38:E38)</f>
+        <v>83</v>
+      </c>
+      <c r="H38" s="5">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <v>25</v>
+      </c>
+      <c r="J38">
+        <v>25</v>
+      </c>
+      <c r="K38">
+        <v>27</v>
+      </c>
+      <c r="L38">
+        <v>21</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="O38" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="P38" s="6"/>
+      <c r="P38" s="7"/>
       <c r="Q38">
         <v>89</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="8"/>
+        <v>44.5</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
@@ -1760,6 +2127,29 @@
       <c r="E39">
         <v>15</v>
       </c>
+      <c r="F39">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="H39" s="5">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>8</v>
+      </c>
+      <c r="J39">
+        <v>11</v>
+      </c>
+      <c r="K39">
+        <v>7</v>
+      </c>
+      <c r="L39">
+        <v>18</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
@@ -1777,6 +2167,29 @@
       <c r="E40">
         <v>1</v>
       </c>
+      <c r="F40">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="H40" s="5">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>5</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>3</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
@@ -1794,13 +2207,36 @@
       <c r="E41">
         <v>0</v>
       </c>
-      <c r="O41" s="5" t="s">
+      <c r="F41">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H41" s="5">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O41" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B42">
@@ -1819,21 +2255,53 @@
         <f>SUM(E37:E41)</f>
         <v>50</v>
       </c>
-      <c r="O42" s="6" t="s">
+      <c r="F42">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="I42">
+        <f>SUM(I37:I41)</f>
+        <v>50</v>
+      </c>
+      <c r="J42">
+        <f>SUM(J37:J41)</f>
+        <v>50</v>
+      </c>
+      <c r="K42">
+        <f>SUM(K37:K41)</f>
+        <v>50</v>
+      </c>
+      <c r="L42">
+        <f>SUM(L37:L41)</f>
+        <v>50</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="O42" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P42" s="6"/>
+      <c r="P42" s="7"/>
       <c r="Q42">
         <v>129</v>
       </c>
+      <c r="S42">
+        <f>(Q42/200)*100</f>
+        <v>64.5</v>
+      </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O43" s="6" t="s">
+      <c r="O43" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P43" s="6"/>
+      <c r="P43" s="7"/>
       <c r="Q43">
         <v>71</v>
+      </c>
+      <c r="S43">
+        <f t="shared" ref="S43:S44" si="10">(Q43/200)*100</f>
+        <v>35.5</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -1841,77 +2309,105 @@
         <f>SUM(Q42:Q43)</f>
         <v>200</v>
       </c>
+      <c r="S44">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O46" s="5" t="s">
+      <c r="O46" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O47" s="6" t="s">
+      <c r="O47" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P47" s="6"/>
+      <c r="P47" s="7"/>
       <c r="Q47">
         <v>127</v>
       </c>
+      <c r="S47">
+        <f>(Q47/200)*100</f>
+        <v>63.5</v>
+      </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O48" s="6" t="s">
+      <c r="O48" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P48" s="6"/>
+      <c r="P48" s="7"/>
       <c r="Q48">
         <v>73</v>
       </c>
+      <c r="S48">
+        <f>(Q48/200)*100</f>
+        <v>36.5</v>
+      </c>
     </row>
     <row r="51" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="O51" s="5" t="s">
+      <c r="O51" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
     </row>
     <row r="52" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="O52" s="6" t="s">
+      <c r="O52" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="P52" s="6"/>
+      <c r="P52" s="7"/>
       <c r="Q52">
         <v>45</v>
       </c>
+      <c r="S52">
+        <f>(Q52/200)*100</f>
+        <v>22.5</v>
+      </c>
     </row>
     <row r="53" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="O53" s="6" t="s">
+      <c r="O53" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P53" s="6"/>
+      <c r="P53" s="7"/>
       <c r="Q53">
         <v>64</v>
       </c>
+      <c r="S53">
+        <f t="shared" ref="S53:S56" si="11">(Q53/200)*100</f>
+        <v>32</v>
+      </c>
     </row>
     <row r="54" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="O54" s="6" t="s">
+      <c r="O54" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P54" s="6"/>
+      <c r="P54" s="7"/>
       <c r="Q54">
         <v>80</v>
       </c>
+      <c r="S54">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="55" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="O55" s="6" t="s">
+      <c r="O55" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="P55" s="6"/>
+      <c r="P55" s="7"/>
       <c r="Q55">
         <v>11</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="11"/>
+        <v>5.5</v>
       </c>
     </row>
     <row r="56" spans="15:19" x14ac:dyDescent="0.25">
@@ -1919,26 +2415,23 @@
         <f>SUM(Q52:Q55)</f>
         <v>200</v>
       </c>
+      <c r="S56">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="O46:S46"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="O51:S51"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="O54:P54"/>
+  <mergeCells count="45">
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="O34:S34"/>
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="O27:S27"/>
     <mergeCell ref="O29:P29"/>
     <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O20:S20"/>
-    <mergeCell ref="O22:P22"/>
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="O7:S7"/>
     <mergeCell ref="O8:P8"/>
@@ -1947,16 +2440,23 @@
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O14:S14"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O20:S20"/>
+    <mergeCell ref="O22:P22"/>
     <mergeCell ref="O55:P55"/>
     <mergeCell ref="O48:P48"/>
     <mergeCell ref="O38:P38"/>
     <mergeCell ref="O41:S41"/>
     <mergeCell ref="O42:P42"/>
     <mergeCell ref="O43:P43"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="O34:S34"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="O46:S46"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="O51:S51"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="O53:P53"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A22:E22"/>
@@ -1966,6 +2466,7 @@
     <mergeCell ref="H15:L15"/>
     <mergeCell ref="H22:L22"/>
     <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H36:L36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Document/SurveyReport.xlsx
+++ b/Document/SurveyReport.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
   <si>
     <t>Public</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Montly fee notifying system</t>
   </si>
   <si>
-    <t>reasonaly speed for school bus</t>
-  </si>
-  <si>
     <t>&lt;60 km/hr</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>&lt;100 km/hr</t>
   </si>
   <si>
-    <t>period of trip</t>
-  </si>
-  <si>
     <t>31-60 mins</t>
   </si>
   <si>
@@ -89,9 +83,6 @@
     <t>&gt;60 mins</t>
   </si>
   <si>
-    <t>how far between accomdation to/from school</t>
-  </si>
-  <si>
     <t>&lt;20 km</t>
   </si>
   <si>
@@ -171,13 +162,28 @@
   </si>
   <si>
     <t xml:space="preserve">System overall satisfaction </t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Reasonable speed for school bus</t>
+  </si>
+  <si>
+    <t>Period of trip</t>
+  </si>
+  <si>
+    <t>Distance between home to/from school</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,8 +224,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,8 +280,13 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -250,34 +294,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="การคำนวณ" xfId="4" builtinId="22"/>
     <cellStyle name="ดี" xfId="1" builtinId="26"/>
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
     <cellStyle name="ปานกลาง" xfId="3" builtinId="28"/>
@@ -559,33 +623,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S56"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.09765625" customWidth="1"/>
+    <col min="6" max="6" width="11.19921875" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>50</v>
       </c>
@@ -599,8 +664,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B3">
@@ -620,8 +685,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B4">
@@ -641,7 +706,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -649,7 +714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>97</v>
       </c>
@@ -657,67 +722,55 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="H8" s="6" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="O8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P8" s="7"/>
-      <c r="Q8">
-        <v>2</v>
-      </c>
-      <c r="S8">
-        <f>(Q8/200)*100</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -756,19 +809,8 @@
         <f>SUM(I9:L9)</f>
         <v>24</v>
       </c>
-      <c r="O9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P9" s="7"/>
-      <c r="Q9">
-        <v>94</v>
-      </c>
-      <c r="S9">
-        <f t="shared" ref="S9:S12" si="0">(Q9/200)*100</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>4</v>
       </c>
@@ -785,7 +827,7 @@
         <v>26</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F10:F22" si="1">SUM(B10:E10)</f>
+        <f t="shared" ref="F10:F22" si="0">SUM(B10:E10)</f>
         <v>80</v>
       </c>
       <c r="H10" s="2">
@@ -804,22 +846,11 @@
         <v>6</v>
       </c>
       <c r="M10">
-        <f t="shared" ref="M10:M42" si="2">SUM(I10:L10)</f>
+        <f t="shared" ref="M10:M42" si="1">SUM(I10:L10)</f>
         <v>61</v>
       </c>
-      <c r="O10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="7"/>
-      <c r="Q10">
-        <v>82</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
@@ -836,7 +867,7 @@
         <v>14</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="H11" s="2">
@@ -855,194 +886,113 @@
         <v>31</v>
       </c>
       <c r="M11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="O11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P11" s="7"/>
-      <c r="Q11">
-        <v>22</v>
-      </c>
-      <c r="S11">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="H12" s="2">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>5</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>5</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="Q12">
-        <f>SUM(Q8:Q11)</f>
-        <v>200</v>
-      </c>
-      <c r="S12">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <f>SUM(B9:B13)</f>
-        <v>50</v>
-      </c>
-      <c r="C14">
-        <f>SUM(C9:C13)</f>
-        <v>50</v>
-      </c>
-      <c r="D14">
-        <f>SUM(D9:D13)</f>
-        <v>50</v>
-      </c>
-      <c r="E14">
-        <f>SUM(E9:E13)</f>
-        <v>50</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="I14">
-        <f>SUM(I9:I13)</f>
-        <v>50</v>
-      </c>
-      <c r="J14">
-        <f>SUM(J9:J13)</f>
-        <v>50</v>
-      </c>
-      <c r="K14">
-        <f>SUM(K9:K13)</f>
-        <v>50</v>
-      </c>
-      <c r="L14">
-        <f>SUM(L9:L13)</f>
-        <v>50</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="6" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="7"/>
-      <c r="Q15">
-        <v>37</v>
-      </c>
-      <c r="S15">
-        <f>(Q15/200)*100</f>
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>5</v>
       </c>
@@ -1059,7 +1009,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="H16" s="2">
@@ -1078,22 +1028,11 @@
         <v>8</v>
       </c>
       <c r="M16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="O16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P16" s="7"/>
-      <c r="Q16">
-        <v>71</v>
-      </c>
-      <c r="S16">
-        <f t="shared" ref="S16:S18" si="3">(Q16/200)*100</f>
-        <v>35.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>4</v>
       </c>
@@ -1110,7 +1049,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>101</v>
       </c>
       <c r="H17" s="2">
@@ -1129,22 +1068,11 @@
         <v>10</v>
       </c>
       <c r="M17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="O17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P17" s="7"/>
-      <c r="Q17">
-        <v>92</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="3"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>3</v>
       </c>
@@ -1161,7 +1089,7 @@
         <v>14</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="H18" s="2">
@@ -1180,19 +1108,11 @@
         <v>25</v>
       </c>
       <c r="M18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="Q18">
-        <f>SUM(Q15:Q17)</f>
-        <v>200</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2</v>
       </c>
@@ -1209,165 +1129,92 @@
         <v>4</v>
       </c>
       <c r="F19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>5</v>
+      </c>
+      <c r="M19">
         <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="2">
-        <v>2</v>
-      </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
-      <c r="J19">
-        <v>5</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>5</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>2</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <f>SUM(B16:B20)</f>
-        <v>50</v>
-      </c>
-      <c r="C21">
-        <f>SUM(C16:C20)</f>
-        <v>50</v>
-      </c>
-      <c r="D21">
-        <f>SUM(D16:D20)</f>
-        <v>50</v>
-      </c>
-      <c r="E21">
-        <f>SUM(E16:E20)</f>
-        <v>50</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="I21">
-        <f>SUM(I16:I20)</f>
-        <v>50</v>
-      </c>
-      <c r="J21">
-        <f>SUM(J16:J20)</f>
-        <v>50</v>
-      </c>
-      <c r="K21">
-        <f>SUM(K16:K20)</f>
-        <v>50</v>
-      </c>
-      <c r="L21">
-        <f>SUM(L16:L20)</f>
-        <v>50</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P21" s="7"/>
-      <c r="Q21">
-        <v>9</v>
-      </c>
-      <c r="S21">
-        <f>(Q21/200)*100</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="6" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P22" s="7"/>
-      <c r="Q22">
-        <v>76</v>
-      </c>
-      <c r="S22">
-        <f t="shared" ref="S22:S25" si="4">(Q22/200)*100</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>5</v>
       </c>
@@ -1403,22 +1250,11 @@
         <v>4</v>
       </c>
       <c r="M23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="O23" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P23" s="7"/>
-      <c r="Q23">
-        <v>72</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="4"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>4</v>
       </c>
@@ -1454,22 +1290,11 @@
         <v>20</v>
       </c>
       <c r="M24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P24" s="7"/>
-      <c r="Q24">
-        <v>43</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="4"/>
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>3</v>
       </c>
@@ -1486,7 +1311,7 @@
         <v>28</v>
       </c>
       <c r="F25">
-        <f t="shared" ref="F25:F27" si="5">SUM(B25:E25)</f>
+        <f t="shared" ref="F25:F27" si="2">SUM(B25:E25)</f>
         <v>70</v>
       </c>
       <c r="H25" s="2">
@@ -1505,19 +1330,11 @@
         <v>24</v>
       </c>
       <c r="M25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="Q25">
-        <f>SUM(Q21:Q24)</f>
-        <v>200</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2</v>
       </c>
@@ -1534,7 +1351,7 @@
         <v>7</v>
       </c>
       <c r="F26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="H26" s="2">
@@ -1553,28 +1370,28 @@
         <v>2</v>
       </c>
       <c r="M26">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>1</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H27" s="2">
@@ -1593,102 +1410,33 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <f>SUM(B23:B27)</f>
-        <v>50</v>
-      </c>
-      <c r="C28">
-        <f>SUM(C23:C27)</f>
-        <v>50</v>
-      </c>
-      <c r="D28">
-        <f>SUM(D23:D27)</f>
-        <v>50</v>
-      </c>
-      <c r="E28">
-        <f>SUM(E23:E27)</f>
-        <v>50</v>
-      </c>
-      <c r="F28">
-        <f>SUM(B28:E28)</f>
-        <v>200</v>
-      </c>
-      <c r="I28">
-        <f>SUM(I23:I27)</f>
-        <v>50</v>
-      </c>
-      <c r="J28">
-        <f>SUM(J23:J27)</f>
-        <v>50</v>
-      </c>
-      <c r="K28">
-        <f>SUM(K23:K27)</f>
-        <v>50</v>
-      </c>
-      <c r="L28">
-        <f>SUM(L23:L27)</f>
-        <v>50</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P28" s="7"/>
-      <c r="Q28">
-        <v>109</v>
-      </c>
-      <c r="S28">
-        <f>(Q28/200)*100</f>
-        <v>54.500000000000007</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="H29" s="6" t="s">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P29" s="7"/>
-      <c r="Q29">
-        <v>68</v>
-      </c>
-      <c r="S29">
-        <f t="shared" ref="S29:S32" si="6">(Q29/200)*100</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>5</v>
       </c>
@@ -1724,22 +1472,11 @@
         <v>3</v>
       </c>
       <c r="M30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="O30" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P30" s="7"/>
-      <c r="Q30">
-        <v>4</v>
-      </c>
-      <c r="S30">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>4</v>
       </c>
@@ -1756,7 +1493,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <f t="shared" ref="F31:F35" si="7">SUM(B31:E31)</f>
+        <f t="shared" ref="F31:F35" si="3">SUM(B31:E31)</f>
         <v>78</v>
       </c>
       <c r="H31" s="2">
@@ -1775,22 +1512,11 @@
         <v>6</v>
       </c>
       <c r="M31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P31" s="7"/>
-      <c r="Q31">
-        <v>19</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="6"/>
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>3</v>
       </c>
@@ -1807,7 +1533,7 @@
         <v>27</v>
       </c>
       <c r="F32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
       <c r="H32" s="2">
@@ -1826,19 +1552,11 @@
         <v>28</v>
       </c>
       <c r="M32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="Q32">
-        <f>SUM(Q28:Q31)</f>
-        <v>200</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2</v>
       </c>
@@ -1855,7 +1573,7 @@
         <v>5</v>
       </c>
       <c r="F33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="H33" s="2">
@@ -1874,11 +1592,11 @@
         <v>13</v>
       </c>
       <c r="M33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>1</v>
       </c>
@@ -1895,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H34" s="2">
@@ -1914,102 +1632,33 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="O34" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <f>SUM(B30:B34)</f>
-        <v>50</v>
-      </c>
-      <c r="C35">
-        <f>SUM(C30:C34)</f>
-        <v>50</v>
-      </c>
-      <c r="D35">
-        <f>SUM(D30:D34)</f>
-        <v>50</v>
-      </c>
-      <c r="E35">
-        <f>SUM(E30:E34)</f>
-        <v>50</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="7"/>
-        <v>200</v>
-      </c>
-      <c r="I35">
-        <f>SUM(I30:I34)</f>
-        <v>50</v>
-      </c>
-      <c r="J35">
-        <f>SUM(J30:J34)</f>
-        <v>50</v>
-      </c>
-      <c r="K35">
-        <f>SUM(K30:K34)</f>
-        <v>50</v>
-      </c>
-      <c r="L35">
-        <f>SUM(L30:L34)</f>
-        <v>50</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P35" s="7"/>
-      <c r="Q35">
-        <v>94</v>
-      </c>
-      <c r="S35">
-        <f>(Q35/200)*100</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="H36" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P36" s="7"/>
-      <c r="Q36">
-        <v>84</v>
-      </c>
-      <c r="S36">
-        <f t="shared" ref="S36:S38" si="8">(Q36/200)*100</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>5</v>
       </c>
@@ -2029,7 +1678,7 @@
         <f>SUM(B37:E37)</f>
         <v>74</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="3">
         <v>5</v>
       </c>
       <c r="I37">
@@ -2045,22 +1694,11 @@
         <v>8</v>
       </c>
       <c r="M37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="O37" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P37" s="7"/>
-      <c r="Q37">
-        <v>87</v>
-      </c>
-      <c r="S37">
-        <f t="shared" si="8"/>
-        <v>43.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>4</v>
       </c>
@@ -2077,10 +1715,10 @@
         <v>18</v>
       </c>
       <c r="F38">
-        <f t="shared" ref="F38:F42" si="9">SUM(B38:E38)</f>
+        <f t="shared" ref="F38:F42" si="4">SUM(B38:E38)</f>
         <v>83</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="3">
         <v>4</v>
       </c>
       <c r="I38">
@@ -2096,22 +1734,11 @@
         <v>21</v>
       </c>
       <c r="M38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P38" s="7"/>
-      <c r="Q38">
-        <v>89</v>
-      </c>
-      <c r="S38">
-        <f t="shared" si="8"/>
-        <v>44.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>3</v>
       </c>
@@ -2128,10 +1755,10 @@
         <v>15</v>
       </c>
       <c r="F39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="3">
         <v>3</v>
       </c>
       <c r="I39">
@@ -2147,11 +1774,11 @@
         <v>18</v>
       </c>
       <c r="M39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>2</v>
       </c>
@@ -2168,10 +1795,10 @@
         <v>1</v>
       </c>
       <c r="F40">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="H40" s="5">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H40" s="3">
         <v>2</v>
       </c>
       <c r="I40">
@@ -2187,11 +1814,11 @@
         <v>3</v>
       </c>
       <c r="M40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>1</v>
       </c>
@@ -2208,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="H41" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H41" s="3">
         <v>1</v>
       </c>
       <c r="I41">
@@ -2227,248 +1854,480 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O41" s="6" t="s">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <f>(C44/200)*100</f>
+        <v>1</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44">
+        <v>109</v>
+      </c>
+      <c r="M44">
+        <f>(J44/200)*100</f>
+        <v>54.500000000000007</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45">
+        <v>94</v>
+      </c>
+      <c r="F45">
+        <f>(C45/200)*100</f>
+        <v>47</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" s="4"/>
+      <c r="J45">
+        <v>68</v>
+      </c>
+      <c r="M45">
+        <f>(J45/200)*100</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46">
+        <v>82</v>
+      </c>
+      <c r="F46">
+        <f>(C46/200)*100</f>
+        <v>41</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="J46">
+        <v>4</v>
+      </c>
+      <c r="M46">
+        <f>(J46/200)*100</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47">
+        <v>22</v>
+      </c>
+      <c r="F47">
+        <f>(C47/200)*100</f>
+        <v>11</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I47" s="4"/>
+      <c r="J47">
+        <v>19</v>
+      </c>
+      <c r="M47">
+        <f>(J47/200)*100</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51">
+        <v>37</v>
+      </c>
+      <c r="F51">
+        <f>(C51/200)*100</f>
+        <v>18.5</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I51" s="4"/>
+      <c r="J51">
+        <v>94</v>
+      </c>
+      <c r="M51">
+        <f>(J51/200)*100</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52">
+        <v>71</v>
+      </c>
+      <c r="F52">
+        <f>(C52/200)*100</f>
+        <v>35.5</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I52" s="4"/>
+      <c r="J52">
+        <v>84</v>
+      </c>
+      <c r="M52">
+        <f>(J52/200)*100</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53">
+        <v>92</v>
+      </c>
+      <c r="F53">
+        <f>(C53/200)*100</f>
+        <v>46</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I53" s="4"/>
+      <c r="J53">
+        <v>87</v>
+      </c>
+      <c r="M53">
+        <f>(J53/200)*100</f>
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H54" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I54" s="4"/>
+      <c r="J54">
+        <v>89</v>
+      </c>
+      <c r="M54">
+        <f>(J54/200)*100</f>
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57">
+        <v>9</v>
+      </c>
+      <c r="F57">
+        <f>(C57/200)*100</f>
+        <v>4.5</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I57" s="4"/>
+      <c r="J57">
+        <v>129</v>
+      </c>
+      <c r="M57">
+        <f>(J57/200)*100</f>
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58">
+        <v>76</v>
+      </c>
+      <c r="F58">
+        <f>(C58/200)*100</f>
+        <v>38</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I58" s="4"/>
+      <c r="J58">
+        <v>71</v>
+      </c>
+      <c r="M58">
+        <f>(J58/200)*100</f>
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59">
+        <v>72</v>
+      </c>
+      <c r="F59">
+        <f>(C59/200)*100</f>
         <v>36</v>
       </c>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <f>SUM(B37:B41)</f>
-        <v>50</v>
-      </c>
-      <c r="C42">
-        <f>SUM(C37:C41)</f>
-        <v>50</v>
-      </c>
-      <c r="D42">
-        <f>SUM(D37:D41)</f>
-        <v>50</v>
-      </c>
-      <c r="E42">
-        <f>SUM(E37:E41)</f>
-        <v>50</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="9"/>
-        <v>200</v>
-      </c>
-      <c r="I42">
-        <f>SUM(I37:I41)</f>
-        <v>50</v>
-      </c>
-      <c r="J42">
-        <f>SUM(J37:J41)</f>
-        <v>50</v>
-      </c>
-      <c r="K42">
-        <f>SUM(K37:K41)</f>
-        <v>50</v>
-      </c>
-      <c r="L42">
-        <f>SUM(L37:L41)</f>
-        <v>50</v>
-      </c>
-      <c r="M42">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="O42" s="7" t="s">
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60">
+        <v>43</v>
+      </c>
+      <c r="F60">
+        <f>(C60/200)*100</f>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H61" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H62" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I62" s="4"/>
+      <c r="J62">
+        <v>127</v>
+      </c>
+      <c r="M62">
+        <f>(J62/200)*100</f>
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="P42" s="7"/>
-      <c r="Q42">
-        <v>129</v>
-      </c>
-      <c r="S42">
-        <f>(Q42/200)*100</f>
-        <v>64.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O43" s="7" t="s">
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I63" s="4"/>
+      <c r="J63">
+        <v>73</v>
+      </c>
+      <c r="M63">
+        <f>(J63/200)*100</f>
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P43" s="7"/>
-      <c r="Q43">
-        <v>71</v>
-      </c>
-      <c r="S43">
-        <f t="shared" ref="S43:S44" si="10">(Q43/200)*100</f>
-        <v>35.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q44">
-        <f>SUM(Q42:Q43)</f>
-        <v>200</v>
-      </c>
-      <c r="S44">
-        <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O46" s="6" t="s">
+      <c r="B64" s="4"/>
+      <c r="C64">
+        <v>45</v>
+      </c>
+      <c r="F64">
+        <f>(C64/200)*100</f>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O47" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P47" s="7"/>
-      <c r="Q47">
-        <v>127</v>
-      </c>
-      <c r="S47">
-        <f>(Q47/200)*100</f>
-        <v>63.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O48" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P48" s="7"/>
-      <c r="Q48">
-        <v>73</v>
-      </c>
-      <c r="S48">
-        <f>(Q48/200)*100</f>
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="51" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="O51" s="6" t="s">
+      <c r="B65" s="4"/>
+      <c r="C65">
+        <v>64</v>
+      </c>
+      <c r="F65">
+        <f>(C65/200)*100</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-    </row>
-    <row r="52" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="O52" s="7" t="s">
+      <c r="B66" s="4"/>
+      <c r="C66">
+        <v>80</v>
+      </c>
+      <c r="F66">
+        <f>(C66/200)*100</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="P52" s="7"/>
-      <c r="Q52">
-        <v>45</v>
-      </c>
-      <c r="S52">
-        <f>(Q52/200)*100</f>
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="53" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="O53" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P53" s="7"/>
-      <c r="Q53">
-        <v>64</v>
-      </c>
-      <c r="S53">
-        <f t="shared" ref="S53:S56" si="11">(Q53/200)*100</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="O54" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P54" s="7"/>
-      <c r="Q54">
-        <v>80</v>
-      </c>
-      <c r="S54">
-        <f t="shared" si="11"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="O55" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P55" s="7"/>
-      <c r="Q55">
+      <c r="B67" s="4"/>
+      <c r="C67">
         <v>11</v>
       </c>
-      <c r="S55">
-        <f t="shared" si="11"/>
+      <c r="F67">
+        <f>(C67/200)*100</f>
         <v>5.5</v>
-      </c>
-    </row>
-    <row r="56" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="Q56">
-        <f>SUM(Q52:Q55)</f>
-        <v>200</v>
-      </c>
-      <c r="S56">
-        <f t="shared" si="11"/>
-        <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="O34:S34"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="O27:S27"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O7:S7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O14:S14"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O20:S20"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="O41:S41"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="O46:S46"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="O51:S51"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H36:L36"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="A29:E29"/>
     <mergeCell ref="A36:E36"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H56:L56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H50:L50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>